--- a/Udacity Preparing and Modelling Data/Data Model for Seven Sages Brewing Company/source-files/Monthly Sales Logs/SSBC - Jul 2021 Sales.xlsx
+++ b/Udacity Preparing and Modelling Data/Data Model for Seven Sages Brewing Company/source-files/Monthly Sales Logs/SSBC - Jul 2021 Sales.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenor_1m07fy7\Desktop\Udacity - Power BI Idea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PowerBI\Power-BI\Udacity Preparing and Modelling Data\Data Model for Seven Sages Brewing Company\source-files\Monthly Sales Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{613D410C-5CAC-413D-999C-6D4A347CDF16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BF2F41-FB25-4C14-BC9C-A084D6BEFAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{1FAECEC5-DEE8-4ED3-89B5-84E2E37163EC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{1FAECEC5-DEE8-4ED3-89B5-84E2E37163EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Jul 2021 Sales" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -141,39 +139,20 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -189,13 +168,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -252,7 +229,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -342,7 +319,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D787A5C1-4189-4074-ACA5-2146F24E82EA}" name="Table53711121314" displayName="Table53711121314" ref="A1:E57" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E57" xr:uid="{5FADBE7F-BA1B-4A37-90C5-0AFE3140F2F2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{54B9466C-B62F-4D0F-B656-440A759B17DF}" name="CustID" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{B4372BD3-CA96-4642-8995-CA0E168CB21A}" name="ProdID" dataDxfId="3"/>
@@ -656,15 +632,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -680,16 +656,15 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>44378</v>
       </c>
       <c r="D2" s="1" t="str">
@@ -699,16 +674,15 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>44378</v>
       </c>
       <c r="D3" s="1" t="str">
@@ -718,16 +692,15 @@
       <c r="E3" s="1">
         <v>12</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>44378</v>
       </c>
       <c r="D4" s="1" t="str">
@@ -737,16 +710,15 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>44378</v>
       </c>
       <c r="D5" s="1" t="str">
@@ -756,16 +728,15 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>44378</v>
       </c>
       <c r="D6" s="1" t="str">
@@ -775,16 +746,15 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>44378</v>
       </c>
       <c r="D7" s="1" t="str">
@@ -794,16 +764,15 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>44378</v>
       </c>
       <c r="D8" s="1" t="str">
@@ -813,16 +782,15 @@
       <c r="E8" s="1">
         <v>16</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>44386</v>
       </c>
       <c r="D9" s="1" t="str">
@@ -832,16 +800,15 @@
       <c r="E9" s="1">
         <v>6</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>44387</v>
       </c>
       <c r="D10" s="1" t="str">
@@ -851,16 +818,15 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>44387</v>
       </c>
       <c r="D11" s="1" t="str">
@@ -870,16 +836,15 @@
       <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>44387</v>
       </c>
       <c r="D12" s="1" t="str">
@@ -889,16 +854,15 @@
       <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>44387</v>
       </c>
       <c r="D13" s="1" t="str">
@@ -908,16 +872,15 @@
       <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>44387</v>
       </c>
       <c r="D14" s="1" t="str">
@@ -927,16 +890,15 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>44387</v>
       </c>
       <c r="D15" s="1" t="str">
@@ -946,16 +908,15 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>44387</v>
       </c>
       <c r="D16" s="1" t="str">
@@ -965,16 +926,15 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>44387</v>
       </c>
       <c r="D17" s="1" t="str">
@@ -984,16 +944,15 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>44387</v>
       </c>
       <c r="D18" s="1" t="str">
@@ -1003,16 +962,15 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>44387</v>
       </c>
       <c r="D19" s="1" t="str">
@@ -1022,16 +980,15 @@
       <c r="E19" s="1">
         <v>6</v>
       </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>44396</v>
       </c>
       <c r="D20" s="1" t="str">
@@ -1041,16 +998,15 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>44396</v>
       </c>
       <c r="D21" s="1" t="str">
@@ -1060,16 +1016,15 @@
       <c r="E21" s="1">
         <v>2</v>
       </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>44396</v>
       </c>
       <c r="D22" s="1" t="str">
@@ -1079,16 +1034,15 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>44396</v>
       </c>
       <c r="D23" s="1" t="str">
@@ -1098,16 +1052,15 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>44396</v>
       </c>
       <c r="D24" s="1" t="str">
@@ -1117,16 +1070,15 @@
       <c r="E24" s="1">
         <v>2</v>
       </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>44396</v>
       </c>
       <c r="D25" s="1" t="str">
@@ -1136,16 +1088,15 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>44397</v>
       </c>
       <c r="D26" s="1" t="str">
@@ -1155,16 +1106,15 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>44397</v>
       </c>
       <c r="D27" s="1" t="str">
@@ -1174,16 +1124,15 @@
       <c r="E27" s="1">
         <v>1</v>
       </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>44397</v>
       </c>
       <c r="D28" s="1" t="str">
@@ -1193,16 +1142,15 @@
       <c r="E28" s="1">
         <v>6</v>
       </c>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>44397</v>
       </c>
       <c r="D29" s="1" t="str">
@@ -1212,16 +1160,15 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>44397</v>
       </c>
       <c r="D30" s="1" t="str">
@@ -1231,16 +1178,15 @@
       <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>44397</v>
       </c>
       <c r="D31" s="1" t="str">
@@ -1250,16 +1196,15 @@
       <c r="E31" s="1">
         <v>1</v>
       </c>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>44397</v>
       </c>
       <c r="D32" s="1" t="str">
@@ -1269,16 +1214,15 @@
       <c r="E32" s="1">
         <v>1</v>
       </c>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>44397</v>
       </c>
       <c r="D33" s="1" t="str">
@@ -1288,16 +1232,15 @@
       <c r="E33" s="1">
         <v>12</v>
       </c>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>44397</v>
       </c>
       <c r="D34" s="1" t="str">
@@ -1307,16 +1250,15 @@
       <c r="E34" s="1">
         <v>6</v>
       </c>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>44397</v>
       </c>
       <c r="D35" s="1" t="str">
@@ -1326,16 +1268,15 @@
       <c r="E35" s="1">
         <v>1</v>
       </c>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>44397</v>
       </c>
       <c r="D36" s="1" t="str">
@@ -1345,16 +1286,15 @@
       <c r="E36" s="1">
         <v>2</v>
       </c>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>44401</v>
       </c>
       <c r="D37" s="1" t="str">
@@ -1364,16 +1304,15 @@
       <c r="E37" s="1">
         <v>2</v>
       </c>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>44401</v>
       </c>
       <c r="D38" s="1" t="str">
@@ -1383,16 +1322,15 @@
       <c r="E38" s="1">
         <v>2</v>
       </c>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>44387</v>
       </c>
       <c r="D39" s="1" t="str">
@@ -1402,16 +1340,15 @@
       <c r="E39" s="1">
         <v>1</v>
       </c>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>44402</v>
       </c>
       <c r="D40" s="1" t="str">
@@ -1421,16 +1358,15 @@
       <c r="E40" s="1">
         <v>1</v>
       </c>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>44402</v>
       </c>
       <c r="D41" s="1" t="str">
@@ -1440,16 +1376,15 @@
       <c r="E41" s="1">
         <v>1</v>
       </c>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>44402</v>
       </c>
       <c r="D42" s="1" t="str">
@@ -1459,16 +1394,15 @@
       <c r="E42" s="1">
         <v>1</v>
       </c>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>44402</v>
       </c>
       <c r="D43" s="1" t="str">
@@ -1478,16 +1412,15 @@
       <c r="E43" s="1">
         <v>1</v>
       </c>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>44402</v>
       </c>
       <c r="D44" s="1" t="str">
@@ -1497,16 +1430,15 @@
       <c r="E44" s="1">
         <v>6</v>
       </c>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>44402</v>
       </c>
       <c r="D45" s="1" t="str">
@@ -1516,16 +1448,15 @@
       <c r="E45" s="1">
         <v>1</v>
       </c>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>44402</v>
       </c>
       <c r="D46" s="1" t="str">
@@ -1535,16 +1466,15 @@
       <c r="E46" s="1">
         <v>2</v>
       </c>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>44402</v>
       </c>
       <c r="D47" s="1" t="str">
@@ -1554,16 +1484,15 @@
       <c r="E47" s="1">
         <v>1</v>
       </c>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>44405</v>
       </c>
       <c r="D48" s="1" t="str">
@@ -1573,16 +1502,15 @@
       <c r="E48" s="1">
         <v>1</v>
       </c>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <v>44407</v>
       </c>
       <c r="D49" s="1" t="str">
@@ -1592,16 +1520,15 @@
       <c r="E49" s="1">
         <v>2</v>
       </c>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <v>44407</v>
       </c>
       <c r="D50" s="1" t="str">
@@ -1611,16 +1538,15 @@
       <c r="E50" s="1">
         <v>1</v>
       </c>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>44407</v>
       </c>
       <c r="D51" s="1" t="str">
@@ -1630,16 +1556,15 @@
       <c r="E51" s="1">
         <v>1</v>
       </c>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <v>44387</v>
       </c>
       <c r="D52" s="1" t="str">
@@ -1649,16 +1574,15 @@
       <c r="E52" s="1">
         <v>1</v>
       </c>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>44387</v>
       </c>
       <c r="D53" s="1" t="str">
@@ -1668,16 +1592,15 @@
       <c r="E53" s="1">
         <v>2</v>
       </c>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>44387</v>
       </c>
       <c r="D54" s="1" t="str">
@@ -1687,16 +1610,15 @@
       <c r="E54" s="1">
         <v>1</v>
       </c>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>44402</v>
       </c>
       <c r="D55" s="1" t="str">
@@ -1706,16 +1628,15 @@
       <c r="E55" s="1">
         <v>1</v>
       </c>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <v>44402</v>
       </c>
       <c r="D56" s="1" t="str">
@@ -1725,16 +1646,15 @@
       <c r="E56" s="1">
         <v>1</v>
       </c>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <v>44402</v>
       </c>
       <c r="D57" s="1" t="str">
@@ -1744,40 +1664,6 @@
       <c r="E57" s="1">
         <v>2</v>
       </c>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F68" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
